--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H2">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I2">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J2">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>318.5710219891569</v>
+        <v>133.6512324708258</v>
       </c>
       <c r="R2">
-        <v>2867.139197902412</v>
+        <v>1202.861092237432</v>
       </c>
       <c r="S2">
-        <v>0.01337689268263197</v>
+        <v>0.01008567084841489</v>
       </c>
       <c r="T2">
-        <v>0.01493699326453784</v>
+        <v>0.01132824458142494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H3">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I3">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J3">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>1224.779404604976</v>
+        <v>671.234360751465</v>
       </c>
       <c r="R3">
-        <v>11023.01464144478</v>
+        <v>6041.109246763187</v>
       </c>
       <c r="S3">
-        <v>0.05142885424103728</v>
+        <v>0.05065309686660179</v>
       </c>
       <c r="T3">
-        <v>0.05742682307668229</v>
+        <v>0.05689365424826026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H4">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I4">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J4">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>2069.913652570506</v>
+        <v>1396.92936411098</v>
       </c>
       <c r="R4">
-        <v>18629.22287313456</v>
+        <v>12572.36427699882</v>
       </c>
       <c r="S4">
-        <v>0.08691629458279118</v>
+        <v>0.1054159359733872</v>
       </c>
       <c r="T4">
-        <v>0.09705304046038722</v>
+        <v>0.1184033787573034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H5">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I5">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J5">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>1029.389024479754</v>
+        <v>682.5905270788551</v>
       </c>
       <c r="R5">
-        <v>6176.334146878525</v>
+        <v>4095.54316247313</v>
       </c>
       <c r="S5">
-        <v>0.04322435362502484</v>
+        <v>0.05151006281865845</v>
       </c>
       <c r="T5">
-        <v>0.03217697334644707</v>
+        <v>0.03857080001812899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H6">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I6">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J6">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>4778.843726852552</v>
+        <v>1020.045527591649</v>
       </c>
       <c r="R6">
-        <v>43009.59354167298</v>
+        <v>9180.409748324846</v>
       </c>
       <c r="S6">
-        <v>0.2006650802135777</v>
+        <v>0.0769752979564388</v>
       </c>
       <c r="T6">
-        <v>0.2240679523032859</v>
+        <v>0.08645880032022313</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>34.208462</v>
       </c>
       <c r="I7">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J7">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>240.4280062410193</v>
+        <v>184.0498420172062</v>
       </c>
       <c r="R7">
-        <v>2163.852056169173</v>
+        <v>1656.448578154856</v>
       </c>
       <c r="S7">
-        <v>0.01009564403348259</v>
+        <v>0.01388888147135867</v>
       </c>
       <c r="T7">
-        <v>0.01127306396986289</v>
+        <v>0.01560001794969344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>34.208462</v>
       </c>
       <c r="I8">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J8">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
         <v>924.3504587942707</v>
@@ -948,10 +948,10 @@
         <v>8319.154129148437</v>
       </c>
       <c r="S8">
-        <v>0.03881375277395269</v>
+        <v>0.069753898289081</v>
       </c>
       <c r="T8">
-        <v>0.04334046609409572</v>
+        <v>0.07834771054924307</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>34.208462</v>
       </c>
       <c r="I9">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J9">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>1562.179791090765</v>
+        <v>1923.69815093134</v>
       </c>
       <c r="R9">
-        <v>14059.61811981688</v>
+        <v>17313.28335838206</v>
       </c>
       <c r="S9">
-        <v>0.06559639758166345</v>
+        <v>0.1451672835582191</v>
       </c>
       <c r="T9">
-        <v>0.07324667784226178</v>
+        <v>0.1630521675835802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>34.208462</v>
       </c>
       <c r="I10">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J10">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>776.8878325991587</v>
+        <v>939.988927514965</v>
       </c>
       <c r="R10">
-        <v>4661.326995594953</v>
+        <v>5639.93356508979</v>
       </c>
       <c r="S10">
-        <v>0.03262175290844632</v>
+        <v>0.07093401795707271</v>
       </c>
       <c r="T10">
-        <v>0.02428420984511266</v>
+        <v>0.05311548212893209</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>34.208462</v>
       </c>
       <c r="I11">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J11">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>3606.630201988893</v>
+        <v>1404.695001556246</v>
       </c>
       <c r="R11">
-        <v>32459.67181790004</v>
+        <v>12642.25501400622</v>
       </c>
       <c r="S11">
-        <v>0.1514434830158118</v>
+        <v>0.1060019512442765</v>
       </c>
       <c r="T11">
-        <v>0.1691058110006642</v>
+        <v>0.1190615922184464</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H12">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I12">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J12">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>42.284915366386</v>
+        <v>30.08713189404311</v>
       </c>
       <c r="R12">
-        <v>380.5642382974739</v>
+        <v>270.784187046388</v>
       </c>
       <c r="S12">
-        <v>0.001775556268170472</v>
+        <v>0.002270453503841823</v>
       </c>
       <c r="T12">
-        <v>0.001982633235363001</v>
+        <v>0.002550177671752565</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H13">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I13">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J13">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>162.5687519939487</v>
+        <v>151.1061018322554</v>
       </c>
       <c r="R13">
-        <v>1463.118767945538</v>
+        <v>1359.954916490299</v>
       </c>
       <c r="S13">
-        <v>0.006826310614800617</v>
+        <v>0.01140286084978572</v>
       </c>
       <c r="T13">
-        <v>0.007622439537644398</v>
+        <v>0.01280771488340108</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H14">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I14">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J14">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>274.7460301572873</v>
+        <v>314.4722068600699</v>
       </c>
       <c r="R14">
-        <v>2472.714271415586</v>
+        <v>2830.24986174063</v>
       </c>
       <c r="S14">
-        <v>0.011536668142146</v>
+        <v>0.02373089354082562</v>
       </c>
       <c r="T14">
-        <v>0.01288214972062836</v>
+        <v>0.02665458452954376</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H15">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I15">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J15">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>136.633983553892</v>
+        <v>153.6625651568825</v>
       </c>
       <c r="R15">
-        <v>819.8039013233522</v>
+        <v>921.975390941295</v>
       </c>
       <c r="S15">
-        <v>0.005737301915875841</v>
+        <v>0.01159577824494601</v>
       </c>
       <c r="T15">
-        <v>0.004270949021682463</v>
+        <v>0.008682933377793765</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H16">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I16">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J16">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>634.3106829911939</v>
+        <v>229.6293401804432</v>
       </c>
       <c r="R16">
-        <v>5708.796146920746</v>
+        <v>2066.664061623989</v>
       </c>
       <c r="S16">
-        <v>0.02663489566891301</v>
+        <v>0.0173284293708566</v>
       </c>
       <c r="T16">
-        <v>0.02974123113993194</v>
+        <v>0.01946332465885129</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H17">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I17">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J17">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N17">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O17">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P17">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q17">
-        <v>170.54653426986</v>
+        <v>74.29433252605801</v>
       </c>
       <c r="R17">
-        <v>1023.27920561916</v>
+        <v>445.7659951563481</v>
       </c>
       <c r="S17">
-        <v>0.007161300083346509</v>
+        <v>0.005606444249768283</v>
       </c>
       <c r="T17">
-        <v>0.005330998443764869</v>
+        <v>0.004198112526709467</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H18">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I18">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J18">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P18">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q18">
-        <v>655.68387669482</v>
+        <v>373.1271899155215</v>
       </c>
       <c r="R18">
-        <v>3934.10326016892</v>
+        <v>2238.763139493129</v>
       </c>
       <c r="S18">
-        <v>0.02753236247764316</v>
+        <v>0.02815715165891496</v>
       </c>
       <c r="T18">
-        <v>0.02049557759251129</v>
+        <v>0.02108411068220908</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H19">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I19">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J19">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N19">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O19">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P19">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q19">
-        <v>1108.12526977354</v>
+        <v>776.5280781479551</v>
       </c>
       <c r="R19">
-        <v>6648.751618641239</v>
+        <v>4659.16846888773</v>
       </c>
       <c r="S19">
-        <v>0.0465305121605749</v>
+        <v>0.05859883561090274</v>
       </c>
       <c r="T19">
-        <v>0.03463813623624752</v>
+        <v>0.04387888202738966</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H20">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I20">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J20">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N20">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O20">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P20">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q20">
-        <v>551.0819202709201</v>
+        <v>379.4398799053613</v>
       </c>
       <c r="R20">
-        <v>2204.327681083681</v>
+        <v>1517.759519621445</v>
       </c>
       <c r="S20">
-        <v>0.02314009498030789</v>
+        <v>0.0286335237224461</v>
       </c>
       <c r="T20">
-        <v>0.01148393065438531</v>
+        <v>0.01429387912288041</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H21">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I21">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J21">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N21">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O21">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P21">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q21">
-        <v>2558.34705348594</v>
+        <v>567.0250862456865</v>
       </c>
       <c r="R21">
-        <v>15350.08232091564</v>
+        <v>3402.150517474119</v>
       </c>
       <c r="S21">
-        <v>0.1074257594608651</v>
+        <v>0.04278919301336333</v>
       </c>
       <c r="T21">
-        <v>0.07996963537918265</v>
+        <v>0.03204060170661899</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H22">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I22">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J22">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N22">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O22">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P22">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q22">
-        <v>33.43186117794133</v>
+        <v>31.525943408032</v>
       </c>
       <c r="R22">
-        <v>300.886750601472</v>
+        <v>283.733490672288</v>
       </c>
       <c r="S22">
-        <v>0.001403813869715974</v>
+        <v>0.002379029976162563</v>
       </c>
       <c r="T22">
-        <v>0.001567535810752023</v>
+        <v>0.002672130970915701</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H23">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I23">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J23">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P23">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q23">
-        <v>128.5322650273849</v>
+        <v>158.332220955736</v>
       </c>
       <c r="R23">
-        <v>1156.790385246464</v>
+        <v>1424.989988601624</v>
       </c>
       <c r="S23">
-        <v>0.005397108327026238</v>
+        <v>0.01194816265990386</v>
       </c>
       <c r="T23">
-        <v>0.00602655434572196</v>
+        <v>0.01342019890836634</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H24">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I24">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J24">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N24">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O24">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P24">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q24">
-        <v>217.2233539980231</v>
+        <v>329.51073674232</v>
       </c>
       <c r="R24">
-        <v>1955.010185982208</v>
+        <v>2965.59663068088</v>
       </c>
       <c r="S24">
-        <v>0.009121273731833121</v>
+        <v>0.02486574025815412</v>
       </c>
       <c r="T24">
-        <v>0.01018505624054917</v>
+        <v>0.02792924650984674</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H25">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I25">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J25">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N25">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O25">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P25">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q25">
-        <v>108.0273740832427</v>
+        <v>161.01093816882</v>
       </c>
       <c r="R25">
-        <v>648.1642444994561</v>
+        <v>966.06562901292</v>
       </c>
       <c r="S25">
-        <v>0.004536101811379632</v>
+        <v>0.0121503056525848</v>
       </c>
       <c r="T25">
-        <v>0.003376754418301584</v>
+        <v>0.009098164200165426</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H26">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I26">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J26">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N26">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O26">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P26">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q26">
-        <v>501.507133541632</v>
+        <v>240.610557657896</v>
       </c>
       <c r="R26">
-        <v>4513.564201874688</v>
+        <v>2165.495018921064</v>
       </c>
       <c r="S26">
-        <v>0.0210584348289818</v>
+        <v>0.01815710070403436</v>
       </c>
       <c r="T26">
-        <v>0.02351440701999569</v>
+        <v>0.02039408986831958</v>
       </c>
     </row>
   </sheetData>
